--- a/中考成绩查询.xlsx
+++ b/中考成绩查询.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean/python3Pros/queryScore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3338C913-2166-4FEF-A7B2-33FF94C699A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53043BD-1799-E14C-B3E1-D7552B74DBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1270" windowWidth="23250" windowHeight="12220" xr2:uid="{C45D6121-7360-4EF3-A27C-77767F99C34A}"/>
+    <workbookView xWindow="1980" yWindow="1780" windowWidth="25500" windowHeight="12220" xr2:uid="{C45D6121-7360-4EF3-A27C-77767F99C34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="181">
   <si>
     <t>6班</t>
   </si>
@@ -551,13 +546,57 @@
   </si>
   <si>
     <t>246305102729</t>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德与法治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育与健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,22 +979,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EA1E1B-F76B-447C-B69D-9A0D9133ED59}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>110</v>
@@ -969,8 +1010,41 @@
       <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1163,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1299,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1537,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1843,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1911,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1928,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1962,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
